--- a/Tables/Table7_PRS_Results.xlsx
+++ b/Tables/Table7_PRS_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521D8F07-D98B-4191-9AAE-96C174BA0A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399696B6-2FF2-43C7-9C5E-6CC0AF0ABCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="21760" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -557,16 +557,16 @@
         <v>0.3</v>
       </c>
       <c r="D6">
-        <v>2.6184880000000001E-2</v>
+        <v>3.1268860000000002E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>1.903103E-58</v>
+        <v>1.2872390000000001E-69</v>
       </c>
       <c r="F6">
-        <v>6647.49</v>
+        <v>9124.7379999999994</v>
       </c>
       <c r="G6">
-        <v>409.64640000000003</v>
+        <v>513.20410000000004</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/Tables/Table7_PRS_Results.xlsx
+++ b/Tables/Table7_PRS_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399696B6-2FF2-43C7-9C5E-6CC0AF0ABCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DB55AF-EBAD-4E31-AD9B-79A762D8F1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="21760" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -114,12 +114,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -137,7 +143,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,13 +427,14 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -441,7 +448,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -464,10 +471,10 @@
       <c r="C2">
         <v>1E-3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>6.0097919999999999E-2</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1.9041770000000001E-131</v>
       </c>
       <c r="F2">
@@ -487,7 +494,7 @@
       <c r="C3">
         <v>1E-3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5.0606680000000001E-2</v>
       </c>
       <c r="E3" s="1">
@@ -510,7 +517,7 @@
       <c r="C4">
         <v>1E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.1436945</v>
       </c>
       <c r="E4">
@@ -533,7 +540,7 @@
       <c r="C5">
         <v>1E-3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.138846</v>
       </c>
       <c r="E5" t="s">
@@ -556,7 +563,7 @@
       <c r="C6">
         <v>0.3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>3.1268860000000002E-2</v>
       </c>
       <c r="E6" s="1">
@@ -579,7 +586,7 @@
       <c r="C7">
         <v>0.3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>2.6184880000000001E-2</v>
       </c>
       <c r="E7" s="1">
@@ -602,7 +609,7 @@
       <c r="C8">
         <v>1E-3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>4.6727570000000003E-2</v>
       </c>
       <c r="E8" s="1">
@@ -625,7 +632,7 @@
       <c r="C9">
         <v>1E-3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>3.8573370000000003E-2</v>
       </c>
       <c r="E9" s="1">
@@ -648,7 +655,7 @@
       <c r="C10">
         <v>1E-3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1.225332E-2</v>
       </c>
       <c r="E10" s="1">
@@ -671,7 +678,7 @@
       <c r="C11">
         <v>1E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>1.5745220000000001E-2</v>
       </c>
       <c r="E11" s="1">
@@ -694,7 +701,7 @@
       <c r="C12">
         <v>1E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>3.3151590000000002E-2</v>
       </c>
       <c r="E12" s="1">
@@ -717,7 +724,7 @@
       <c r="C13">
         <v>1E-3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>2.736682E-2</v>
       </c>
       <c r="E13" s="1">
@@ -740,7 +747,7 @@
       <c r="C14">
         <v>1E-3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>3.3671890000000003E-2</v>
       </c>
       <c r="E14" s="1">
@@ -763,7 +770,7 @@
       <c r="C15">
         <v>1E-3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>3.4693109999999999E-2</v>
       </c>
       <c r="E15" s="1">
@@ -779,5 +786,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tables/Table7_PRS_Results.xlsx
+++ b/Tables/Table7_PRS_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DB55AF-EBAD-4E31-AD9B-79A762D8F1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63887D9-2C22-4756-BDF6-A75616B18726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>3.359646e-322</t>
+  </si>
+  <si>
+    <t>Software</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolt-lmm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -114,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,10 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,21 +444,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="2"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="2" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,341 +467,750 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>1E-3</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E2" s="2">
         <v>6.0097919999999999E-2</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="3">
         <v>1.9041770000000001E-131</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="3">
         <v>595.95849999999996</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="3">
         <v>24.03614</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1E-3</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E3" s="2">
         <v>5.0606680000000001E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="4">
         <v>1.946982E-110</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="3">
         <v>416.51609999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="3">
         <v>18.402419999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1E-3</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.1436945</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="3">
         <v>629.6662</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="3">
         <v>15.44014</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1E-3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.138846</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="3">
         <v>500.09089999999998</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="3">
         <v>12.513070000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
         <v>0.3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>3.1268860000000002E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="4">
         <v>1.2872390000000001E-69</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="3">
         <v>9124.7379999999994</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="3">
         <v>513.20410000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
         <v>0.3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>2.6184880000000001E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="4">
         <v>1.903103E-58</v>
       </c>
-      <c r="F7">
+      <c r="G7" s="3">
         <v>6647.49</v>
       </c>
-      <c r="G7">
+      <c r="H7" s="3">
         <v>409.64640000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>1E-3</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="2">
         <v>4.6727570000000003E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="4">
         <v>3.1519769999999998E-102</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="3">
         <v>469.46159999999998</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="3">
         <v>21.596219999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1E-3</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="2">
         <v>3.8573370000000003E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="4">
         <v>2.327976E-84</v>
       </c>
-      <c r="F9">
+      <c r="G9" s="3">
         <v>362.82170000000002</v>
       </c>
-      <c r="G9">
+      <c r="H9" s="3">
         <v>18.451930000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>1E-3</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="2">
         <v>1.225332E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="4">
         <v>3.944727E-28</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="3">
         <v>225.88470000000001</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="3">
         <v>20.472660000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>1E-3</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E11" s="2">
         <v>1.5745220000000001E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="4">
         <v>9.8822890000000004E-36</v>
       </c>
-      <c r="F11">
+      <c r="G11" s="3">
         <v>249.14869999999999</v>
       </c>
-      <c r="G11">
+      <c r="H11" s="3">
         <v>19.883040000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>1E-3</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E12" s="2">
         <v>3.3151590000000002E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="4">
         <v>2.6982250000000002E-157</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="3">
         <v>636.61770000000001</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="3">
         <v>23.386130000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>1E-3</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="2">
         <v>2.736682E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="4">
         <v>2.3193869999999999E-129</v>
       </c>
-      <c r="F13">
+      <c r="G13" s="3">
         <v>419.93400000000003</v>
       </c>
-      <c r="G13">
+      <c r="H13" s="3">
         <v>17.0916</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>1E-3</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="2">
         <v>3.3671890000000003E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="4">
         <v>1.2394090000000001E-97</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="3">
         <v>393.03120000000001</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="3">
         <v>18.519490000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>1E-3</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="E15" s="2">
         <v>3.4693109999999999E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="4">
         <v>1.3132489999999999E-100</v>
       </c>
-      <c r="F15">
+      <c r="G15" s="3">
         <v>319.69970000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15" s="3">
         <v>14.82978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1E-3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5.7869299999999999E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.7065489999999999E-126</v>
+      </c>
+      <c r="G16">
+        <v>552.09259999999995</v>
+      </c>
+      <c r="H16">
+        <v>22.719619999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>1E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5.1926399999999998E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.4028940000000001E-113</v>
+      </c>
+      <c r="G17">
+        <v>401.29559999999998</v>
+      </c>
+      <c r="H17">
+        <v>17.490549999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>1E-3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.15402669999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>546.00040000000001</v>
+      </c>
+      <c r="H18">
+        <v>12.847390000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.15499660000000001</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>419.49779999999998</v>
+      </c>
+      <c r="H19">
+        <v>9.8337690000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2.757795E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.6748869999999999E-61</v>
+      </c>
+      <c r="G20">
+        <v>6816.1080000000002</v>
+      </c>
+      <c r="H20">
+        <v>408.99450000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.8191049999999999E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7.5514920000000002E-63</v>
+      </c>
+      <c r="G21">
+        <v>10563.11</v>
+      </c>
+      <c r="H21">
+        <v>626.69960000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>1E-3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.5656410000000001E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>7.1523800000000004E-100</v>
+      </c>
+      <c r="G22">
+        <v>452.63420000000002</v>
+      </c>
+      <c r="H22">
+        <v>21.077310000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>1E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4.3668100000000001E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1.661491E-95</v>
+      </c>
+      <c r="G23">
+        <v>406.31760000000003</v>
+      </c>
+      <c r="H23">
+        <v>19.36749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>1E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.0571479999999999E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1.7890040000000001E-24</v>
+      </c>
+      <c r="G24">
+        <v>211.6823</v>
+      </c>
+      <c r="H24">
+        <v>20.673929999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>1E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1.422208E-2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.0525939999999999E-32</v>
+      </c>
+      <c r="G25">
+        <v>238.57660000000001</v>
+      </c>
+      <c r="H25">
+        <v>20.049379999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>1E-3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5.3049640000000002E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.8595359999999999E-256</v>
+      </c>
+      <c r="G26">
+        <v>1537.7560000000001</v>
+      </c>
+      <c r="H26">
+        <v>43.617600000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>0.05</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5.3976250000000003E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5.4068219999999999E-261</v>
+      </c>
+      <c r="G27">
+        <v>5332.0879999999997</v>
+      </c>
+      <c r="H27">
+        <v>149.7697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28">
+        <v>1E-3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.6609719999999998E-2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3.340041E-106</v>
+      </c>
+      <c r="G28">
+        <v>468.13299999999998</v>
+      </c>
+      <c r="H28">
+        <v>21.10961</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>1E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4.1534179999999997E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.20251E-120</v>
+      </c>
+      <c r="G29">
+        <v>375.8494</v>
+      </c>
+      <c r="H29">
+        <v>15.854710000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Table7_PRS_Results.xlsx
+++ b/Tables/Table7_PRS_Results.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63887D9-2C22-4756-BDF6-A75616B18726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E7C689-4D54-4FA9-AA3C-65934AA62087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -126,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +156,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,12 +181,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -459,7 +486,7 @@
     <col min="6" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -510,8 +537,12 @@
       <c r="H2" s="3">
         <v>24.03614</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="3">
+        <f>E2/E3</f>
+        <v>1.1875491535900002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -537,7 +568,7 @@
         <v>18.402419999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -562,8 +593,12 @@
       <c r="H4" s="3">
         <v>15.44014</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="3">
+        <f>E4/E5</f>
+        <v>1.0349199832908402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -589,7 +624,7 @@
         <v>12.513070000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -614,8 +649,12 @@
       <c r="H6" s="3">
         <v>513.20410000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="3">
+        <f>E6/E7</f>
+        <v>1.1941570860741009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -641,33 +680,37 @@
         <v>409.64640000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="5">
         <v>4.6727570000000003E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>3.1519769999999998E-102</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>469.46159999999998</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>21.596219999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="5">
+        <f>E8/E9</f>
+        <v>1.2113945449930872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -693,7 +736,7 @@
         <v>18.451930000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -718,8 +761,12 @@
       <c r="H10" s="3">
         <v>20.472660000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="3">
+        <f>E10/E11</f>
+        <v>0.77822475646577183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -745,7 +792,7 @@
         <v>19.883040000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -770,8 +817,12 @@
       <c r="H12" s="3">
         <v>23.386130000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="3">
+        <f>E12/E13</f>
+        <v>1.2113789618231128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -797,7 +848,7 @@
         <v>17.0916</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -822,8 +873,12 @@
       <c r="H14" s="3">
         <v>18.519490000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="3">
+        <f>E14/E15</f>
+        <v>0.97056418406997824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -849,7 +904,7 @@
         <v>14.82978</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -874,8 +929,12 @@
       <c r="H16">
         <v>22.719619999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="3">
+        <f>E16/E17</f>
+        <v>1.1144485271461144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -901,7 +960,7 @@
         <v>17.490549999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -926,8 +985,12 @@
       <c r="H18">
         <v>12.847390000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="3">
+        <f>E18/E19</f>
+        <v>0.99374244338262885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -953,7 +1016,7 @@
         <v>9.8337690000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1041,12 @@
       <c r="H20">
         <v>408.99450000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="3">
+        <f>E20/E21</f>
+        <v>0.97825196294568673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1072,7 @@
         <v>626.69960000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1030,8 +1097,12 @@
       <c r="H22">
         <v>21.077310000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="3">
+        <f>E22/E23</f>
+        <v>1.0455323222214843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1057,33 +1128,37 @@
         <v>19.36749</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
-        <v>1E-3</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="E24" s="7">
         <v>1.0571479999999999E-2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="8">
         <v>1.7890040000000001E-24</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>211.6823</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="7">
         <v>20.673929999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="7">
+        <f>E24/E25</f>
+        <v>0.74331462064620646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1184,7 @@
         <v>20.049379999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1134,8 +1209,12 @@
       <c r="H26">
         <v>43.617600000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="3">
+        <f>E26/E27</f>
+        <v>0.98283300525694173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1161,7 +1240,7 @@
         <v>149.7697</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1186,8 +1265,12 @@
       <c r="H28">
         <v>21.10961</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="3">
+        <f>E28/E29</f>
+        <v>0.88143596430698767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>15</v>
       </c>

--- a/Tables/Table7_PRS_Results.xlsx
+++ b/Tables/Table7_PRS_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E7C689-4D54-4FA9-AA3C-65934AA62087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A2D686-DB44-4A2B-ACEE-75B7984A550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="19">
   <si>
     <t>Trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,9 +100,6 @@
   <si>
     <t>Urate</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.359646e-322</t>
   </si>
   <si>
     <t>Software</t>
@@ -474,7 +471,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -494,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -520,26 +517,26 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3">
         <v>1E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>6.0097919999999999E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.9041770000000001E-131</v>
+        <v>5.9940800000000002E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.2584490000000002E-131</v>
       </c>
       <c r="G2" s="3">
-        <v>595.95849999999996</v>
+        <v>595.55250000000001</v>
       </c>
       <c r="H2" s="3">
-        <v>24.03614</v>
+        <v>24.05331</v>
       </c>
       <c r="I2" s="3">
         <f>E2/E3</f>
-        <v>1.1875491535900002</v>
+        <v>1.1430410818051036</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -550,22 +547,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3">
         <v>1E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>5.0606680000000001E-2</v>
+        <v>5.2439760000000002E-2</v>
       </c>
       <c r="F3" s="4">
-        <v>1.946982E-110</v>
+        <v>1.77099E-114</v>
       </c>
       <c r="G3" s="3">
-        <v>416.51609999999999</v>
+        <v>430.3888</v>
       </c>
       <c r="H3" s="3">
-        <v>18.402419999999999</v>
+        <v>18.661280000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -576,26 +573,26 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>1E-3</v>
       </c>
       <c r="E4" s="2">
-        <v>0.1436945</v>
+        <v>0.14565120000000001</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>629.6662</v>
+        <v>662.42830000000004</v>
       </c>
       <c r="H4" s="3">
-        <v>15.44014</v>
+        <v>16.114159999999998</v>
       </c>
       <c r="I4" s="3">
         <f>E4/E5</f>
-        <v>1.0349199832908402</v>
+        <v>1.0127417366448175</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -606,22 +603,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>1E-3</v>
       </c>
       <c r="E5" s="2">
-        <v>0.138846</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>0.14381869999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>500.09089999999998</v>
+        <v>558.61599999999999</v>
       </c>
       <c r="H5" s="3">
-        <v>12.513070000000001</v>
+        <v>13.69092</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -632,26 +629,26 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3">
         <v>0.3</v>
       </c>
       <c r="E6" s="2">
-        <v>3.1268860000000002E-2</v>
+        <v>3.124762E-2</v>
       </c>
       <c r="F6" s="4">
-        <v>1.2872390000000001E-69</v>
+        <v>1.433608E-69</v>
       </c>
       <c r="G6" s="3">
-        <v>9124.7379999999994</v>
+        <v>9167.5949999999993</v>
       </c>
       <c r="H6" s="3">
-        <v>513.20410000000004</v>
+        <v>515.79549999999995</v>
       </c>
       <c r="I6" s="3">
         <f>E6/E7</f>
-        <v>1.1941570860741009</v>
+        <v>1.1926627144857154</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -662,22 +659,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
         <v>0.3</v>
       </c>
       <c r="E7" s="2">
-        <v>2.6184880000000001E-2</v>
+        <v>2.6199879999999998E-2</v>
       </c>
       <c r="F7" s="4">
-        <v>1.903103E-58</v>
+        <v>1.764304E-58</v>
       </c>
       <c r="G7" s="3">
-        <v>6647.49</v>
+        <v>6738.9080000000004</v>
       </c>
       <c r="H7" s="3">
-        <v>409.64640000000003</v>
+        <v>415.15769999999998</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -688,26 +685,26 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5">
         <v>1E-3</v>
       </c>
       <c r="E8" s="5">
-        <v>4.6727570000000003E-2</v>
+        <v>4.5975340000000003E-2</v>
       </c>
       <c r="F8" s="6">
-        <v>3.1519769999999998E-102</v>
+        <v>1.423276E-100</v>
       </c>
       <c r="G8" s="5">
-        <v>469.46159999999998</v>
+        <v>469.12909999999999</v>
       </c>
       <c r="H8" s="5">
-        <v>21.596219999999999</v>
+        <v>21.765709999999999</v>
       </c>
       <c r="I8" s="5">
         <f>E8/E9</f>
-        <v>1.2113945449930872</v>
+        <v>1.1660956919328589</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -718,22 +715,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
         <v>1E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>3.8573370000000003E-2</v>
+        <v>3.942673E-2</v>
       </c>
       <c r="F9" s="4">
-        <v>2.327976E-84</v>
+        <v>3.1916840000000002E-86</v>
       </c>
       <c r="G9" s="3">
-        <v>362.82170000000002</v>
+        <v>369.79730000000001</v>
       </c>
       <c r="H9" s="3">
-        <v>18.451930000000001</v>
+        <v>18.593440000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -744,26 +741,26 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
         <v>1E-3</v>
       </c>
       <c r="E10" s="2">
-        <v>1.225332E-2</v>
+        <v>1.2172250000000001E-2</v>
       </c>
       <c r="F10" s="4">
-        <v>3.944727E-28</v>
+        <v>5.920034E-28</v>
       </c>
       <c r="G10" s="3">
-        <v>225.88470000000001</v>
+        <v>225.78620000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>20.472660000000001</v>
+        <v>20.53266</v>
       </c>
       <c r="I10" s="3">
         <f>E10/E11</f>
-        <v>0.77822475646577183</v>
+        <v>0.81326601243258556</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -774,22 +771,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
         <v>1E-3</v>
       </c>
       <c r="E11" s="2">
-        <v>1.5745220000000001E-2</v>
+        <v>1.496712E-2</v>
       </c>
       <c r="F11" s="4">
-        <v>9.8822890000000004E-36</v>
+        <v>4.8975730000000002E-34</v>
       </c>
       <c r="G11" s="3">
-        <v>249.14869999999999</v>
+        <v>251.50640000000001</v>
       </c>
       <c r="H11" s="3">
-        <v>19.883040000000001</v>
+        <v>20.594930000000002</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -800,26 +797,26 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="E12" s="2">
-        <v>3.3151590000000002E-2</v>
+        <v>6.1427000000000002E-2</v>
       </c>
       <c r="F12" s="4">
-        <v>2.6982250000000002E-157</v>
+        <v>2.3158370000000001E-299</v>
       </c>
       <c r="G12" s="3">
-        <v>636.61770000000001</v>
+        <v>7936.05</v>
       </c>
       <c r="H12" s="3">
-        <v>23.386130000000001</v>
+        <v>207.0575</v>
       </c>
       <c r="I12" s="3">
         <f>E12/E13</f>
-        <v>1.2113789618231128</v>
+        <v>1.0208236253688474</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -830,22 +827,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
       <c r="E13" s="2">
-        <v>2.736682E-2</v>
+        <v>6.0173959999999999E-2</v>
       </c>
       <c r="F13" s="4">
-        <v>2.3193869999999999E-129</v>
+        <v>7.3484609999999995E-293</v>
       </c>
       <c r="G13" s="3">
-        <v>419.93400000000003</v>
+        <v>1250.4760000000001</v>
       </c>
       <c r="H13" s="3">
-        <v>17.0916</v>
+        <v>33.014809999999997</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -856,26 +853,26 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3">
         <v>1E-3</v>
       </c>
       <c r="E14" s="2">
-        <v>3.3671890000000003E-2</v>
+        <v>3.886382E-2</v>
       </c>
       <c r="F14" s="4">
-        <v>1.2394090000000001E-97</v>
+        <v>8.4103730000000006E-113</v>
       </c>
       <c r="G14" s="3">
-        <v>393.03120000000001</v>
+        <v>474.3827</v>
       </c>
       <c r="H14" s="3">
-        <v>18.519490000000001</v>
+        <v>20.727730000000001</v>
       </c>
       <c r="I14" s="3">
         <f>E14/E15</f>
-        <v>0.97056418406997824</v>
+        <v>0.95607599638862173</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -886,22 +883,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>1E-3</v>
       </c>
       <c r="E15" s="2">
-        <v>3.4693109999999999E-2</v>
+        <v>4.0649299999999999E-2</v>
       </c>
       <c r="F15" s="4">
-        <v>1.3132489999999999E-100</v>
+        <v>4.8182770000000002E-118</v>
       </c>
       <c r="G15" s="3">
-        <v>319.69970000000001</v>
+        <v>400.0258</v>
       </c>
       <c r="H15" s="3">
-        <v>14.82978</v>
+        <v>17.068290000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -912,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>1E-3</v>
@@ -942,7 +939,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>1E-3</v>
@@ -968,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>1E-3</v>
@@ -998,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>1E-3</v>
@@ -1024,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>0.2</v>
@@ -1054,7 +1051,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>0.5</v>
@@ -1080,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>1E-3</v>
@@ -1110,7 +1107,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>1E-3</v>
@@ -1136,7 +1133,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
         <v>1E-3</v>
@@ -1166,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>1E-3</v>
@@ -1192,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>1E-3</v>
@@ -1222,7 +1219,7 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>0.05</v>
@@ -1248,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>1E-3</v>
@@ -1278,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>1E-3</v>
